--- a/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
+++ b/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
@@ -168,7 +168,7 @@
     <t>Department of Neurological Surgery</t>
   </si>
   <si>
-    <t>OSG-CG</t>
+    <t>GateKeeper</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
+++ b/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
@@ -168,7 +168,7 @@
     <t>Department of Neurological Surgery</t>
   </si>
   <si>
-    <t>GateKeeper</t>
+    <t>Sponsor</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
+++ b/pub/Accounting/FOSAccounting/ProjectName_mapping_sample.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="17220" windowHeight="8208"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="16608" windowHeight="8208"/>
   </bookViews>
   <sheets>
-    <sheet name="ProjectName DB" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Pubs" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Last_name</t>
   </si>
@@ -117,9 +119,6 @@
     <t>Abstract-of-Work</t>
   </si>
   <si>
-    <t>List-of-Pubs</t>
-  </si>
-  <si>
     <t>Field-of-Science</t>
   </si>
   <si>
@@ -159,9 +158,6 @@
     <t>&lt;short paragraph&gt;</t>
   </si>
   <si>
-    <t>&lt;numbered list&gt;</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -169,13 +165,40 @@
   </si>
   <si>
     <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SciPub</t>
+  </si>
+  <si>
+    <t>&lt;detailed info about publications.</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>jd123</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>jd@abc.edu</t>
+  </si>
+  <si>
+    <t>xyz@abc.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +346,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -622,7 +653,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -665,15 +696,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -707,6 +746,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1014,33 +1054,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="36.21875" customWidth="1"/>
     <col min="10" max="10" width="31.77734375" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1055,27 +1094,24 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1083,6 +1119,9 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -1096,18 +1135,15 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1122,18 +1158,18 @@
         <v>41080</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1148,67 +1184,67 @@
         <v>41109</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
@@ -1440,8 +1476,111 @@
       <c r="G92" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>41214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>